--- a/Comparision methods.xlsx
+++ b/Comparision methods.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa Maessen\Documents\Master\Jaar 2\Graduation project\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6709E77-558C-454A-9A3E-038BF86F7335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F4CE24-02B1-4CF6-92BD-5F7256472B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3B120870-575C-43F6-868E-CBED04BA9BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad3" sheetId="3" r:id="rId2"/>
-    <sheet name="IL vs RL" sheetId="4" r:id="rId3"/>
+    <sheet name="Comparision" sheetId="5" r:id="rId3"/>
+    <sheet name="General" sheetId="7" r:id="rId4"/>
+    <sheet name="Comparision Clean" sheetId="6" r:id="rId5"/>
+    <sheet name="IL vs RL" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,8 +56,80 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={04EE4640-F6EB-4CAA-85F4-1A1585EA73F3}</author>
+    <author>tc={ADF1A2C4-54A9-4350-B879-DA118C9DDACC}</author>
+    <author>tc={1DD1D16C-42EC-426F-B234-8D774919539C}</author>
+    <author>tc={F730839C-363F-427D-B666-80FC6285BBAD}</author>
+    <author>tc={45A745B8-35E8-4108-82D6-1C6718DA835B}</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{04EE4640-F6EB-4CAA-85F4-1A1585EA73F3}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    Check Arora2021 for defenition</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="1" shapeId="0" xr:uid="{ADF1A2C4-54A9-4350-B879-DA118C9DDACC}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    globally stable</t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="2" shapeId="0" xr:uid="{1DD1D16C-42EC-426F-B234-8D774919539C}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    This method evaluates the eigenvaluesof each linear dynamical system and ensures that all of them have negative realparts (stable). Nevertheless, asymptotic stability is not guaranteed</t>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="3" shapeId="0" xr:uid="{F730839C-363F-427D-B666-80FC6285BBAD}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    task Boularias 2011 - ball in cup</t>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="4" shapeId="0" xr:uid="{45A745B8-35E8-4108-82D6-1C6718DA835B}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    at leas the MC-EM variant</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C9669F5A-A706-49E6-A891-E90B8C467D4A}</author>
+  </authors>
+  <commentList>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C9669F5A-A706-49E6-A891-E90B8C467D4A}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    Check Arora2021 for defenition</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="138">
   <si>
     <t>Imitation Learning</t>
   </si>
@@ -517,12 +592,215 @@
 (-) Robot has only indirect information about the goal
 (-) Need to specify reward function, policy parameterization, exploration magnitude/strategy and initial policy</t>
   </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Robust</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Complex skill</t>
+  </si>
+  <si>
+    <t>ProMP</t>
+  </si>
+  <si>
+    <t>GMM + GMR</t>
+  </si>
+  <si>
+    <t>GPR</t>
+  </si>
+  <si>
+    <t>HMM + GMR</t>
+  </si>
+  <si>
+    <t>Not motion-level</t>
+  </si>
+  <si>
+    <t>Max-Margin</t>
+  </si>
+  <si>
+    <t>Max-Entropy</t>
+  </si>
+  <si>
+    <t>High-dim input</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Learn eff.</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>Smooth</t>
+  </si>
+  <si>
+    <t>Repeat.</t>
+  </si>
+  <si>
+    <t>Gener.</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Osa2018</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Ballester2014</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>●</t>
+    </r>
+  </si>
+  <si>
+    <t>Hussein2017</t>
+  </si>
+  <si>
+    <t>Zhu2018</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>High-dim learning</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Convergence</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Deisenroth2011</t>
+  </si>
+  <si>
+    <t>Fast, but can be premature</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Inf. Th.</t>
+  </si>
+  <si>
+    <t>DP (PI/VI)</t>
+  </si>
+  <si>
+    <t>Slow/</t>
+  </si>
+  <si>
+    <t>Chatzilygeroudis2020</t>
+  </si>
+  <si>
+    <t>Grondman2012</t>
+  </si>
+  <si>
+    <t>Lobbezoo2021</t>
+  </si>
+  <si>
+    <t>Low/Better</t>
+  </si>
+  <si>
+    <t>Najar2021</t>
+  </si>
+  <si>
+    <t>DP - NAC/R-MAX</t>
+  </si>
+  <si>
+    <t>TD - SARSA</t>
+  </si>
+  <si>
+    <t>PG - VPG</t>
+  </si>
+  <si>
+    <t>EM - POWER</t>
+  </si>
+  <si>
+    <t>Inf. Th. - REPS</t>
+  </si>
+  <si>
+    <t>AC - A3C</t>
+  </si>
+  <si>
+    <t>Guaranteed</t>
+  </si>
+  <si>
+    <t>REF PAPER</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>DMP</t>
+  </si>
+  <si>
+    <t>+/ +/-</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>Value Function</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Zhifie2012</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,16 +839,82 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -630,11 +974,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -646,26 +1070,152 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -675,57 +1225,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1052,12 +1589,40 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G1" dT="2022-01-21T07:47:55.87" personId="{6A8B5033-5D51-4D56-88B2-9A05BD79385A}" id="{04EE4640-F6EB-4CAA-85F4-1A1585EA73F3}">
+    <text>Check Arora2021 for defenition</text>
+  </threadedComment>
+  <threadedComment ref="D3" dT="2022-02-03T15:49:51.02" personId="{6A8B5033-5D51-4D56-88B2-9A05BD79385A}" id="{ADF1A2C4-54A9-4350-B879-DA118C9DDACC}">
+    <text>globally stable</text>
+  </threadedComment>
+  <threadedComment ref="D7" dT="2022-02-03T15:52:10.87" personId="{6A8B5033-5D51-4D56-88B2-9A05BD79385A}" id="{1DD1D16C-42EC-426F-B234-8D774919539C}">
+    <text>This method evaluates the eigenvaluesof each linear dynamical system and ensures that all of them have negative realparts (stable). Nevertheless, asymptotic stability is not guaranteed</text>
+  </threadedComment>
+  <threadedComment ref="F8" dT="2022-02-04T08:23:53.72" personId="{6A8B5033-5D51-4D56-88B2-9A05BD79385A}" id="{F730839C-363F-427D-B666-80FC6285BBAD}">
+    <text>task Boularias 2011 - ball in cup</text>
+  </threadedComment>
+  <threadedComment ref="G15" dT="2022-02-04T09:00:16.52" personId="{6A8B5033-5D51-4D56-88B2-9A05BD79385A}" id="{45A745B8-35E8-4108-82D6-1C6718DA835B}">
+    <text>at leas the MC-EM variant</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G1" dT="2022-01-21T07:47:55.87" personId="{6A8B5033-5D51-4D56-88B2-9A05BD79385A}" id="{C9669F5A-A706-49E6-A891-E90B8C467D4A}">
+    <text>Check Arora2021 for defenition</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6669121F-2401-46A5-AD58-7BCAD84BC9D1}">
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection activeCell="A12" sqref="A12:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,98 +1640,98 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="60"/>
+      <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1185,7 +1750,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,41 +1764,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="14" t="s">
         <v>49</v>
       </c>
       <c r="O1" t="s">
@@ -1241,52 +1806,52 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="150" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="17" t="s">
         <v>50</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1294,21 +1859,21 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
         <v>27</v>
@@ -1319,28 +1884,28 @@
       <c r="L4" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="59"/>
+      <c r="B5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="3"/>
@@ -1354,21 +1919,21 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="3"/>
@@ -1379,21 +1944,21 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="3"/>
@@ -1404,36 +1969,36 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1449,11 +2014,1211 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A66822-D027-47B4-AC21-0104CBB42F4E}">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" style="23"/>
+    <col min="2" max="2" width="20" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="23" customWidth="1"/>
+    <col min="7" max="7" width="16" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16" style="23" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="23" customWidth="1"/>
+    <col min="18" max="16384" width="8.5703125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="24"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="76"/>
+      <c r="B4" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="21"/>
+      <c r="K4" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="24"/>
+      <c r="O5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="21"/>
+      <c r="K6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="24"/>
+      <c r="O6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="24"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="76"/>
+      <c r="B7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="68"/>
+      <c r="B12" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+      <c r="B16" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="33"/>
+      <c r="M16" s="40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="M17" s="41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="M18" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="68"/>
+      <c r="B19" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="M19" s="47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="M20" s="48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="M21" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
+      <c r="B22" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="M22" s="51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+      <c r="B23" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="M23" s="53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="71"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560A93A2-1ADA-4B57-B61A-52344E269558}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="79"/>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716C75D7-C098-4569-9480-4CF5CD60A883}">
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q1" sqref="J1:Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q2" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="78"/>
+      <c r="L3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="N3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q3" s="56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="78"/>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="N4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="78"/>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>128</v>
+      </c>
+      <c r="R5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="78"/>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="78"/>
+      <c r="L8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="P8" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="78" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="78"/>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="78"/>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="N12" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="78"/>
+      <c r="L13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="N13" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="78"/>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="N14" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q14" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="78"/>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="57"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J2:J8"/>
+    <mergeCell ref="J9:J15"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEA0B78-2270-42CD-BB06-14C9CB799C3C}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,55 +3236,55 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
